--- a/시행착오/write/ac값들 정리+마지막8개 ac갯수 정리.xlsx
+++ b/시행착오/write/ac값들 정리+마지막8개 ac갯수 정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanlee/Documents/GitHub/jpeg.reverse/시행착오/write/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanlee/Documents/GitHub/jpeg.reverse/시행착오/write/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{586284BD-FE01-474D-A9D4-2DFFC34D7DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9865D7-2E54-F541-98B4-8BDE5463B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{D6A18329-2D60-4609-9DAD-3480B076E333}"/>
+    <workbookView xWindow="9620" yWindow="520" windowWidth="14400" windowHeight="17500" xr2:uid="{D6A18329-2D60-4609-9DAD-3480B076E333}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2F10A0-9CD1-46F5-88A7-BA63F0700654}">
-  <dimension ref="B1:HL64"/>
+  <dimension ref="B1:HL66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="B1:AZ64"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C25" sqref="C18:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6832,7 +6832,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D11">
         <v>168</v>
@@ -7479,7 +7479,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>176</v>
@@ -9420,7 +9420,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>175</v>
@@ -10067,7 +10067,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16">
         <v>193</v>
@@ -10714,7 +10714,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>177</v>
@@ -41763,6 +41763,18 @@
       </c>
       <c r="HL64">
         <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65">
+        <f>SUM(C18:C25)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66">
+        <f>AVERAGE(C18:C25)</f>
+        <v>33.125</v>
       </c>
     </row>
   </sheetData>
